--- a/src/main/resources/Blanc.xlsx
+++ b/src/main/resources/Blanc.xlsx
@@ -46,11 +46,11 @@
     <t>№ п/п</t>
   </si>
   <si>
+    <t>resCountryOrProduct</t>
+  </si>
+  <si>
     <t xml:space="preserve">Информация
-ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о поступлении в Республику Беларусь reqCountryOrProduct с  startDate по endDate     </t>
-  </si>
-  <si>
-    <t>resCountryOrProduct</t>
+ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о importexport reqCountryOrProduct с  startDate по endDate     </t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>

--- a/src/main/resources/Blanc.xlsx
+++ b/src/main/resources/Blanc.xlsx
@@ -153,21 +153,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,7 +479,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,30 +492,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -532,62 +534,62 @@
         <v>3</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:16" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/Blanc.xlsx
+++ b/src/main/resources/Blanc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>ВСЕГО, тонн</t>
   </si>
@@ -51,13 +51,16 @@
   <si>
     <t xml:space="preserve">Информация
 ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о importexport reqCountryOrProduct с  startDate по endDate     </t>
+  </si>
+  <si>
+    <t>поступило с 01.01.2022 по endDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +79,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -144,6 +177,96 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -151,25 +274,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,132 +635,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="18" width="10.77734375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:18" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B2:C3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/Blanc.xlsx
+++ b/src/main/resources/Blanc.xlsx
@@ -40,9 +40,6 @@
     <t>Могилевская область</t>
   </si>
   <si>
-    <t>поступило с startDate по endDate</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -53,7 +50,10 @@
 ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о importexport reqCountryOrProduct с  startDate по endDate     </t>
   </si>
   <si>
-    <t>поступило с 01.01.2022 по endDate</t>
+    <t>importexport2 startDate по endDate</t>
+  </si>
+  <si>
+    <t>importexport2 01.01.2022 по endDate</t>
   </si>
 </sst>
 </file>
@@ -285,6 +285,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -309,25 +315,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,7 +638,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,71 +651,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="15"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="8"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -724,37 +724,37 @@
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>4</v>
